--- a/posts/Exploratory Data Analysis (EDA)/Industry sector and working method.xlsx
+++ b/posts/Exploratory Data Analysis (EDA)/Industry sector and working method.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NUSAI\Desktop\Machine learning\HebaNu.github.io\HebaNu.github.io\HebaNu\posts\Exploratory Data Analysis (EDA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC88468-6DC5-4C82-B219-C67617508AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1774C19-FD32-42B7-B307-F896987162A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="2205" windowWidth="20775" windowHeight="12345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,10 @@
     <t/>
   </si>
   <si>
-    <t xml:space="preserve"> Industry sector</t>
+    <t>Working Method</t>
   </si>
   <si>
-    <t>Working Method</t>
+    <t>Industry sector</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
   <dimension ref="A1:C853"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -427,10 +427,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
